--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ntn3-Neo1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ntn3-Neo1.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.248739</v>
+        <v>0.3232956666666666</v>
       </c>
       <c r="H2">
-        <v>0.7462169999999999</v>
+        <v>0.9698869999999999</v>
       </c>
       <c r="I2">
-        <v>0.09500454514204522</v>
+        <v>0.09891704828958615</v>
       </c>
       <c r="J2">
-        <v>0.09500454514204522</v>
+        <v>0.09891704828958615</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.872120333333334</v>
+        <v>4.114675333333333</v>
       </c>
       <c r="N2">
-        <v>17.616361</v>
+        <v>12.344026</v>
       </c>
       <c r="O2">
-        <v>0.07819433676692769</v>
+        <v>0.04794018332925969</v>
       </c>
       <c r="P2">
-        <v>0.07819433676692768</v>
+        <v>0.04794018332925969</v>
       </c>
       <c r="Q2">
-        <v>1.460625339593</v>
+        <v>1.330256705006889</v>
       </c>
       <c r="R2">
-        <v>13.145628056337</v>
+        <v>11.972310345062</v>
       </c>
       <c r="S2">
-        <v>0.007428817397225868</v>
+        <v>0.004742101429391994</v>
       </c>
       <c r="T2">
-        <v>0.007428817397225867</v>
+        <v>0.004742101429391994</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.248739</v>
+        <v>0.3232956666666666</v>
       </c>
       <c r="H3">
-        <v>0.7462169999999999</v>
+        <v>0.9698869999999999</v>
       </c>
       <c r="I3">
-        <v>0.09500454514204522</v>
+        <v>0.09891704828958615</v>
       </c>
       <c r="J3">
-        <v>0.09500454514204522</v>
+        <v>0.09891704828958615</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>59.62659933333334</v>
+        <v>59.62659933333333</v>
       </c>
       <c r="N3">
         <v>178.879798</v>
       </c>
       <c r="O3">
-        <v>0.7939998031155241</v>
+        <v>0.6947109727426806</v>
       </c>
       <c r="P3">
-        <v>0.7939998031155241</v>
+        <v>0.6947109727426806</v>
       </c>
       <c r="Q3">
-        <v>14.831460691574</v>
+        <v>19.27702118253622</v>
       </c>
       <c r="R3">
-        <v>133.483146224166</v>
+        <v>173.493190642826</v>
       </c>
       <c r="S3">
-        <v>0.07543359013786383</v>
+        <v>0.0687187588380931</v>
       </c>
       <c r="T3">
-        <v>0.07543359013786383</v>
+        <v>0.0687187588380931</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.248739</v>
+        <v>0.3232956666666666</v>
       </c>
       <c r="H4">
-        <v>0.7462169999999999</v>
+        <v>0.9698869999999999</v>
       </c>
       <c r="I4">
-        <v>0.09500454514204522</v>
+        <v>0.09891704828958615</v>
       </c>
       <c r="J4">
-        <v>0.09500454514204522</v>
+        <v>0.09891704828958615</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>9.370985666666666</v>
+        <v>21.65107466666666</v>
       </c>
       <c r="N4">
-        <v>28.112957</v>
+        <v>64.95322399999999</v>
       </c>
       <c r="O4">
-        <v>0.1247859320759921</v>
+        <v>0.252257202503176</v>
       </c>
       <c r="P4">
-        <v>0.1247859320759921</v>
+        <v>0.252257202503176</v>
       </c>
       <c r="Q4">
-        <v>2.330929603741</v>
+        <v>6.999698618409776</v>
       </c>
       <c r="R4">
-        <v>20.978366433669</v>
+        <v>62.99728756568799</v>
       </c>
       <c r="S4">
-        <v>0.01185523071700578</v>
+        <v>0.02495253788140258</v>
       </c>
       <c r="T4">
-        <v>0.01185523071700578</v>
+        <v>0.02495253788140258</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.248739</v>
+        <v>0.3232956666666666</v>
       </c>
       <c r="H5">
-        <v>0.7462169999999999</v>
+        <v>0.9698869999999999</v>
       </c>
       <c r="I5">
-        <v>0.09500454514204522</v>
+        <v>0.09891704828958615</v>
       </c>
       <c r="J5">
-        <v>0.09500454514204522</v>
+        <v>0.09891704828958615</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.226786</v>
+        <v>0.4370123333333333</v>
       </c>
       <c r="N5">
-        <v>0.680358</v>
+        <v>1.311037</v>
       </c>
       <c r="O5">
-        <v>0.003019928041555994</v>
+        <v>0.005091641424883797</v>
       </c>
       <c r="P5">
-        <v>0.003019928041555993</v>
+        <v>0.005091641424883797</v>
       </c>
       <c r="Q5">
-        <v>0.05641052285399999</v>
+        <v>0.1412841936465556</v>
       </c>
       <c r="R5">
-        <v>0.5076947056859999</v>
+        <v>1.271557742819</v>
       </c>
       <c r="S5">
-        <v>0.0002869068899497346</v>
+        <v>0.0005036501406984877</v>
       </c>
       <c r="T5">
-        <v>0.0002869068899497346</v>
+        <v>0.0005036501406984877</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>5.946664</v>
       </c>
       <c r="I6">
-        <v>0.7570989516890868</v>
+        <v>0.6064896735907829</v>
       </c>
       <c r="J6">
-        <v>0.7570989516890868</v>
+        <v>0.6064896735907829</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.872120333333334</v>
+        <v>4.114675333333333</v>
       </c>
       <c r="N6">
-        <v>17.616361</v>
+        <v>12.344026</v>
       </c>
       <c r="O6">
-        <v>0.07819433676692769</v>
+        <v>0.04794018332925969</v>
       </c>
       <c r="P6">
-        <v>0.07819433676692768</v>
+        <v>0.04794018332925969</v>
       </c>
       <c r="Q6">
-        <v>11.63984219663378</v>
+        <v>8.156197225473779</v>
       </c>
       <c r="R6">
-        <v>104.758579769704</v>
+        <v>73.40577502926399</v>
       </c>
       <c r="S6">
-        <v>0.05920085039426437</v>
+        <v>0.029075226139245</v>
       </c>
       <c r="T6">
-        <v>0.05920085039426436</v>
+        <v>0.029075226139245</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>5.946664</v>
       </c>
       <c r="I7">
-        <v>0.7570989516890868</v>
+        <v>0.6064896735907829</v>
       </c>
       <c r="J7">
-        <v>0.7570989516890868</v>
+        <v>0.6064896735907829</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>59.62659933333334</v>
+        <v>59.62659933333333</v>
       </c>
       <c r="N7">
         <v>178.879798</v>
       </c>
       <c r="O7">
-        <v>0.7939998031155241</v>
+        <v>0.6947109727426806</v>
       </c>
       <c r="P7">
-        <v>0.7939998031155241</v>
+        <v>0.6947109727426806</v>
       </c>
       <c r="Q7">
-        <v>118.1931172326525</v>
+        <v>118.1931172326524</v>
       </c>
       <c r="R7">
         <v>1063.738055093872</v>
       </c>
       <c r="S7">
-        <v>0.6011364185801046</v>
+        <v>0.4213350310986436</v>
       </c>
       <c r="T7">
-        <v>0.6011364185801046</v>
+        <v>0.4213350310986436</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>5.946664</v>
       </c>
       <c r="I8">
-        <v>0.7570989516890868</v>
+        <v>0.6064896735907829</v>
       </c>
       <c r="J8">
-        <v>0.7570989516890868</v>
+        <v>0.6064896735907829</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>9.370985666666666</v>
+        <v>21.65107466666666</v>
       </c>
       <c r="N8">
-        <v>28.112957</v>
+        <v>64.95322399999999</v>
       </c>
       <c r="O8">
-        <v>0.1247859320759921</v>
+        <v>0.252257202503176</v>
       </c>
       <c r="P8">
-        <v>0.1247859320759921</v>
+        <v>0.252257202503176</v>
       </c>
       <c r="Q8">
-        <v>18.57536770282756</v>
+        <v>42.91722209385955</v>
       </c>
       <c r="R8">
-        <v>167.178309325448</v>
+        <v>386.254998844736</v>
       </c>
       <c r="S8">
-        <v>0.09447529836027922</v>
+        <v>0.1529913884070752</v>
       </c>
       <c r="T8">
-        <v>0.09447529836027922</v>
+        <v>0.1529913884070752</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>5.946664</v>
       </c>
       <c r="I9">
-        <v>0.7570989516890868</v>
+        <v>0.6064896735907829</v>
       </c>
       <c r="J9">
-        <v>0.7570989516890868</v>
+        <v>0.6064896735907829</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.226786</v>
+        <v>0.4370123333333333</v>
       </c>
       <c r="N9">
-        <v>0.680358</v>
+        <v>1.311037</v>
       </c>
       <c r="O9">
-        <v>0.003019928041555994</v>
+        <v>0.005091641424883797</v>
       </c>
       <c r="P9">
-        <v>0.003019928041555993</v>
+        <v>0.005091641424883797</v>
       </c>
       <c r="Q9">
-        <v>0.4495400473013334</v>
+        <v>0.8662551700631111</v>
       </c>
       <c r="R9">
-        <v>4.045860425712</v>
+        <v>7.796296530568</v>
       </c>
       <c r="S9">
-        <v>0.00228638435443852</v>
+        <v>0.003088027945819082</v>
       </c>
       <c r="T9">
-        <v>0.00228638435443852</v>
+        <v>0.003088027945819082</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.312651</v>
+        <v>0.6996333333333333</v>
       </c>
       <c r="H10">
-        <v>0.937953</v>
+        <v>2.0989</v>
       </c>
       <c r="I10">
-        <v>0.1194153954273579</v>
+        <v>0.2140630740024481</v>
       </c>
       <c r="J10">
-        <v>0.1194153954273579</v>
+        <v>0.2140630740024481</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.872120333333334</v>
+        <v>4.114675333333333</v>
       </c>
       <c r="N10">
-        <v>17.616361</v>
+        <v>12.344026</v>
       </c>
       <c r="O10">
-        <v>0.07819433676692769</v>
+        <v>0.04794018332925969</v>
       </c>
       <c r="P10">
-        <v>0.07819433676692768</v>
+        <v>0.04794018332925969</v>
       </c>
       <c r="Q10">
-        <v>1.835924294337</v>
+        <v>2.878764019044445</v>
       </c>
       <c r="R10">
-        <v>16.523318649033</v>
+        <v>25.9088761714</v>
       </c>
       <c r="S10">
-        <v>0.009337607645202663</v>
+        <v>0.01026222301170225</v>
       </c>
       <c r="T10">
-        <v>0.009337607645202662</v>
+        <v>0.01026222301170225</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.312651</v>
+        <v>0.6996333333333333</v>
       </c>
       <c r="H11">
-        <v>0.937953</v>
+        <v>2.0989</v>
       </c>
       <c r="I11">
-        <v>0.1194153954273579</v>
+        <v>0.2140630740024481</v>
       </c>
       <c r="J11">
-        <v>0.1194153954273579</v>
+        <v>0.2140630740024481</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,28 +1113,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>59.62659933333334</v>
+        <v>59.62659933333333</v>
       </c>
       <c r="N11">
         <v>178.879798</v>
       </c>
       <c r="O11">
-        <v>0.7939998031155241</v>
+        <v>0.6947109727426806</v>
       </c>
       <c r="P11">
-        <v>0.7939998031155241</v>
+        <v>0.6947109727426806</v>
       </c>
       <c r="Q11">
-        <v>18.642315908166</v>
+        <v>41.71675644691111</v>
       </c>
       <c r="R11">
-        <v>167.780843173494</v>
+        <v>375.4508080222</v>
       </c>
       <c r="S11">
-        <v>0.09481580045828465</v>
+        <v>0.1487119663685292</v>
       </c>
       <c r="T11">
-        <v>0.09481580045828465</v>
+        <v>0.1487119663685292</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.312651</v>
+        <v>0.6996333333333333</v>
       </c>
       <c r="H12">
-        <v>0.937953</v>
+        <v>2.0989</v>
       </c>
       <c r="I12">
-        <v>0.1194153954273579</v>
+        <v>0.2140630740024481</v>
       </c>
       <c r="J12">
-        <v>0.1194153954273579</v>
+        <v>0.2140630740024481</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>9.370985666666666</v>
+        <v>21.65107466666666</v>
       </c>
       <c r="N12">
-        <v>28.112957</v>
+        <v>64.95322399999999</v>
       </c>
       <c r="O12">
-        <v>0.1247859320759921</v>
+        <v>0.252257202503176</v>
       </c>
       <c r="P12">
-        <v>0.1247859320759921</v>
+        <v>0.252257202503176</v>
       </c>
       <c r="Q12">
-        <v>2.929848039669</v>
+        <v>15.14781353928889</v>
       </c>
       <c r="R12">
-        <v>26.368632357021</v>
+        <v>136.3303218536</v>
       </c>
       <c r="S12">
-        <v>0.01490136142262603</v>
+        <v>0.05399895220708791</v>
       </c>
       <c r="T12">
-        <v>0.01490136142262603</v>
+        <v>0.05399895220708791</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.312651</v>
+        <v>0.6996333333333333</v>
       </c>
       <c r="H13">
-        <v>0.937953</v>
+        <v>2.0989</v>
       </c>
       <c r="I13">
-        <v>0.1194153954273579</v>
+        <v>0.2140630740024481</v>
       </c>
       <c r="J13">
-        <v>0.1194153954273579</v>
+        <v>0.2140630740024481</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.226786</v>
+        <v>0.4370123333333333</v>
       </c>
       <c r="N13">
-        <v>0.680358</v>
+        <v>1.311037</v>
       </c>
       <c r="O13">
-        <v>0.003019928041555994</v>
+        <v>0.005091641424883797</v>
       </c>
       <c r="P13">
-        <v>0.003019928041555993</v>
+        <v>0.005091641424883797</v>
       </c>
       <c r="Q13">
-        <v>0.070904869686</v>
+        <v>0.3057483954777778</v>
       </c>
       <c r="R13">
-        <v>0.6381438271740001</v>
+        <v>2.7517355593</v>
       </c>
       <c r="S13">
-        <v>0.0003606259012445756</v>
+        <v>0.00108993241512883</v>
       </c>
       <c r="T13">
-        <v>0.0003606259012445755</v>
+        <v>0.00108993241512883</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.07456866666666666</v>
+        <v>0.263201</v>
       </c>
       <c r="H14">
-        <v>0.223706</v>
+        <v>0.7896030000000001</v>
       </c>
       <c r="I14">
-        <v>0.02848110774151</v>
+        <v>0.08053020411718284</v>
       </c>
       <c r="J14">
-        <v>0.02848110774151</v>
+        <v>0.08053020411718284</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>5.872120333333334</v>
+        <v>4.114675333333333</v>
       </c>
       <c r="N14">
-        <v>17.616361</v>
+        <v>12.344026</v>
       </c>
       <c r="O14">
-        <v>0.07819433676692769</v>
+        <v>0.04794018332925969</v>
       </c>
       <c r="P14">
-        <v>0.07819433676692768</v>
+        <v>0.04794018332925969</v>
       </c>
       <c r="Q14">
-        <v>0.4378761837628889</v>
+        <v>1.082986662408667</v>
       </c>
       <c r="R14">
-        <v>3.940885653866</v>
+        <v>9.746879961678001</v>
       </c>
       <c r="S14">
-        <v>0.002227061330234784</v>
+        <v>0.003860632748920449</v>
       </c>
       <c r="T14">
-        <v>0.002227061330234784</v>
+        <v>0.003860632748920449</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.07456866666666666</v>
+        <v>0.263201</v>
       </c>
       <c r="H15">
-        <v>0.223706</v>
+        <v>0.7896030000000001</v>
       </c>
       <c r="I15">
-        <v>0.02848110774151</v>
+        <v>0.08053020411718284</v>
       </c>
       <c r="J15">
-        <v>0.02848110774151</v>
+        <v>0.08053020411718284</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1361,28 +1361,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>59.62659933333334</v>
+        <v>59.62659933333333</v>
       </c>
       <c r="N15">
         <v>178.879798</v>
       </c>
       <c r="O15">
-        <v>0.7939998031155241</v>
+        <v>0.6947109727426806</v>
       </c>
       <c r="P15">
-        <v>0.7939998031155241</v>
+        <v>0.6947109727426806</v>
       </c>
       <c r="Q15">
-        <v>4.446276010154222</v>
+        <v>15.69378057113267</v>
       </c>
       <c r="R15">
-        <v>40.016484091388</v>
+        <v>141.244025140194</v>
       </c>
       <c r="S15">
-        <v>0.02261399393927097</v>
+        <v>0.05594521643741471</v>
       </c>
       <c r="T15">
-        <v>0.02261399393927097</v>
+        <v>0.05594521643741471</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.07456866666666666</v>
+        <v>0.263201</v>
       </c>
       <c r="H16">
-        <v>0.223706</v>
+        <v>0.7896030000000001</v>
       </c>
       <c r="I16">
-        <v>0.02848110774151</v>
+        <v>0.08053020411718284</v>
       </c>
       <c r="J16">
-        <v>0.02848110774151</v>
+        <v>0.08053020411718284</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>9.370985666666666</v>
+        <v>21.65107466666666</v>
       </c>
       <c r="N16">
-        <v>28.112957</v>
+        <v>64.95322399999999</v>
       </c>
       <c r="O16">
-        <v>0.1247859320759921</v>
+        <v>0.252257202503176</v>
       </c>
       <c r="P16">
-        <v>0.1247859320759921</v>
+        <v>0.252257202503176</v>
       </c>
       <c r="Q16">
-        <v>0.6987819065157777</v>
+        <v>5.698584503341332</v>
       </c>
       <c r="R16">
-        <v>6.289037158642</v>
+        <v>51.287260530072</v>
       </c>
       <c r="S16">
-        <v>0.00355404157608108</v>
+        <v>0.02031432400761029</v>
       </c>
       <c r="T16">
-        <v>0.003554041576081081</v>
+        <v>0.02031432400761029</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.07456866666666666</v>
+        <v>0.263201</v>
       </c>
       <c r="H17">
-        <v>0.223706</v>
+        <v>0.7896030000000001</v>
       </c>
       <c r="I17">
-        <v>0.02848110774151</v>
+        <v>0.08053020411718284</v>
       </c>
       <c r="J17">
-        <v>0.02848110774151</v>
+        <v>0.08053020411718284</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.226786</v>
+        <v>0.4370123333333333</v>
       </c>
       <c r="N17">
-        <v>0.680358</v>
+        <v>1.311037</v>
       </c>
       <c r="O17">
-        <v>0.003019928041555994</v>
+        <v>0.005091641424883797</v>
       </c>
       <c r="P17">
-        <v>0.003019928041555993</v>
+        <v>0.005091641424883797</v>
       </c>
       <c r="Q17">
-        <v>0.01691112963866667</v>
+        <v>0.1150220831456667</v>
       </c>
       <c r="R17">
-        <v>0.152200166748</v>
+        <v>1.035198748311</v>
       </c>
       <c r="S17">
-        <v>8.601089592316355E-05</v>
+        <v>0.0004100309232373958</v>
       </c>
       <c r="T17">
-        <v>8.601089592316355E-05</v>
+        <v>0.0004100309232373958</v>
       </c>
     </row>
   </sheetData>
